--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -501,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS264</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -565,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3 (Tutorial)</t>
+          <t>CS262 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -661,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3 (Tutorial)</t>
+          <t>CS261 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +743,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -771,22 +775,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>CS262</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS263</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,27 +839,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -867,27 +871,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS263 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,22 +903,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -931,27 +935,3130 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,17 +475,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262 [C405]</t>
         </is>
       </c>
     </row>
@@ -505,27 +507,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263 [C405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
     </row>
@@ -569,27 +571,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 [C405]</t>
         </is>
       </c>
     </row>
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS262 (Tutorial)</t>
+          <t>CS262 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>CS264 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -633,22 +635,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS261 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS261 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +677,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>MA261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>MA262 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -743,27 +745,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS262 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
     </row>
@@ -775,27 +777,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263 [C405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -839,27 +841,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 [C405]</t>
         </is>
       </c>
     </row>
@@ -876,22 +878,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>MA261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>CS261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS262 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,27 +905,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
     </row>
@@ -935,27 +937,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>MA262 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS263 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS261 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS262 (Tutorial)</t>
+          <t>CS264 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -970,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,177 +1089,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>FIXED COMMON SLOTS</t>
         </is>
@@ -2693,7 +2524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,496 +3019,6 @@
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>6</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>6</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3694,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,219 +3187,1333 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule only ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Exclude ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Curriculum requirement - Semester 3 focuses on B3 electives</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>56</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,149 +464,149 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS263 [C305]</t>
+          <t>CS262 [C204]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS264 [C201]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS261 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS263 [C305]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>CS264 [C101]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA262 [C403]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS262 [C204]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MA262 [C002]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA262 [C002]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS261 [C302]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS263 [C302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C405]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS264 [C101]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C405]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS263 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA261 [C405]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA261 [C304]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS262 [C401]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C405]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C405]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS264 [C201]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial) [C201]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L306]</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -617,76 +614,76 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CS263 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA261 [C405]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS263 [C302]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS261 [C302]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA262 [C403]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS261 [C401]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS262 [C401]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA261 [C304]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -710,258 +707,3666 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA261 [C102]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA262 [C003]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS261 [C305]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS264 [C302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS264 [C302]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS263 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS262 [C203]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C202]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS262 [C203]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C202]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS263 [C004]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS261 [C305]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA261 [C102]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS263 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MA262 [C003]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial) [C401]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS263 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA261 [C404]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS262 [C205]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS261 [C204]</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS264 [C305]</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [C404]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS263 [C302]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS264 [C305]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C101]</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS262 [C205]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C101]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA262 [C104]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA262 [C104]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L408]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS261 [C204]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L306]</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial) [C302]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L306]</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS262 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>MA262 [C404]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS263 [C402]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA262 [C404]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS264 [C101]</t>
         </is>
       </c>
     </row>
@@ -503,12 +503,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C403]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C204]</t>
+          <t>CS261 [C402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS261 [C302]</t>
+          <t>CS261 [C402]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C405]</t>
+          <t>ELECTIVE_B3 [C305]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS264 [C101]</t>
+          <t>CS263 [C402]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C405]</t>
+          <t>ELECTIVE_B3 [C305]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L407]</t>
+          <t>CS262 [C201]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261 [C405]</t>
+          <t>MA261 [C205]</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial) [C402]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261 [C405]</t>
+          <t>MA261 [C205]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS261 [C302]</t>
+          <t>CS262 [C201]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262 [C403]</t>
+          <t>CS263 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L406]</t>
+          <t>CS262 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L406]</t>
+          <t>CS262 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS262 [C302]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS262 [C302]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS264 [C402]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA262 [C003]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS261 [C305]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS264 [C302]</t>
         </is>
       </c>
     </row>
@@ -773,27 +773,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS264 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>MA262 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 [C402]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS262 [C203]</t>
+          <t>CS261 [C401]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C101]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C202]</t>
+          <t>ELECTIVE_B3 [C002]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS262 [C203]</t>
+          <t>MA261 [C404]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C202]</t>
+          <t>ELECTIVE_B3 [C002]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS263 [C403]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L306]</t>
+          <t>MA261 [C404]</t>
         </is>
       </c>
     </row>
@@ -874,22 +874,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS261 [C305]</t>
+          <t>CS263 [C403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261 [C102]</t>
+          <t>CS261 [C401]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L408]</t>
+          <t>CS263 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>CS262 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L408]</t>
+          <t>CS263 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2301,17 +2301,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2796,27 +2796,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2906,17 +2906,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2926,12 +2926,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3066,22 +3066,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3346,27 +3346,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3506,22 +3506,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3566,27 +3566,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3621,12 +3621,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3681,12 +3681,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3726,22 +3726,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3786,27 +3786,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3851,17 +3851,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4016,17 +4016,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4071,12 +4071,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4126,12 +4126,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4171,17 +4171,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4246,12 +4246,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4336,32 +4336,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C404]</t>
+          <t>MA262 [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263 [C402]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA262 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C202]</t>
         </is>
       </c>
     </row>
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS264 [C101]</t>
+          <t>CS262 [C402]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS261 [C402]</t>
+          <t>CS263 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 [C402]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS261 [C402]</t>
+          <t>CS264 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 [C204]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C305]</t>
+          <t>ELECTIVE_B3 [C104]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS263 [C402]</t>
+          <t>MA261 [C101]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C305]</t>
+          <t>ELECTIVE_B3 [C104]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS262 [C201]</t>
+          <t>CS263 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261 [C205]</t>
+          <t>MA261 [C101]</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CS263 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial) [C402]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261 [C205]</t>
+          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS264 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS262 [C201]</t>
+          <t>CS261 [C403]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L407]</t>
+          <t>CS261 [C403]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L407]</t>
+          <t>CS264 [C202]</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS262 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial) [C404]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L407]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS261 [C401]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS262 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS262 [C302]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS262 [C302]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS264 [C402]</t>
+          <t>MA262 [C401]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261 [C401]</t>
         </is>
       </c>
     </row>
@@ -773,27 +773,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA261 [C202]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS264 [C405]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS264 [C405]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS263 [C003]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA262 [C101]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS264 [C402]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS261 [C401]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA262 [C101]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C004]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA261 [C404]</t>
+          <t>MA262 [C401]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C004]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263 [C403]</t>
+          <t>CS262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261 [C404]</t>
+          <t>MA261 [C202]</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial) [C303]</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS263 [C403]</t>
+          <t>CS263 [C003]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS261 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>CS262 [C004]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L406]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L406]</t>
+          <t>CS263 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -948,12 +948,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L406]</t>
+          <t>CS263 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2306,12 +2306,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2416,27 +2416,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2461,27 +2461,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2631,12 +2631,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2911,12 +2911,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3071,17 +3071,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3291,17 +3291,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3346,27 +3346,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3451,32 +3451,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3506,32 +3506,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3566,27 +3566,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3621,17 +3621,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3786,27 +3786,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3841,27 +3841,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3956,22 +3956,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4011,12 +4011,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4111,22 +4111,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4171,17 +4171,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4226,17 +4226,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4286,12 +4286,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>MA262 [C304]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS261 [C002]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS264 [C203]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS261 [C304]</t>
+          <t>CS262 [C403]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>CS263 [C303]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C204]</t>
+          <t>CS264 [C201]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS262 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [C205]</t>
+          <t>CS264 [C201]</t>
         </is>
       </c>
     </row>
@@ -570,27 +570,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C202]</t>
+          <t>ELECTIVE_B3 [C204]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L406]</t>
+          <t>MA261 [C401]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C202]</t>
+          <t>ELECTIVE_B3 [C204]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA261 [C204]</t>
+          <t>CS263 [C303]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS264 [C203]</t>
+          <t>CS262 [C403]</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -634,27 +634,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS261 [C304]</t>
+          <t>MA261 [C401]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS262 [C204]</t>
+          <t>CS263 (Lab) [L306]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA262 [C205]</t>
+          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L306]</t>
+          <t>MA262 [C304]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261 [C002]</t>
         </is>
       </c>
     </row>
@@ -666,22 +666,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS263 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L306]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -744,27 +744,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS264 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>MA261 [C201]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>MA261 [C201]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS261 [C201]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262 [C203]</t>
+          <t>CS263 [C102]</t>
         </is>
       </c>
     </row>
@@ -776,27 +776,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C304]</t>
+          <t>CS261 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [C304]</t>
+          <t>CS263 [C102]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>MA262 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS262 [C404]</t>
+          <t>CS264 [C305]</t>
         </is>
       </c>
     </row>
@@ -840,27 +840,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C004]</t>
+          <t>ELECTIVE_B3 [C104]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS262 [C404]</t>
+          <t>CS264 [C305]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C004]</t>
+          <t>ELECTIVE_B3 [C104]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262 [C203]</t>
+          <t>MA262 [C202]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L408]</t>
+          <t>CS261 [C003]</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C204]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -904,27 +904,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS263 [C004]</t>
+          <t>CS262 [C201]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS261 [C201]</t>
+          <t>CS263 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 [C201]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS264 [C204]</t>
+          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>CS263 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial) [C205]</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>L306, C302</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -1116,34 +1116,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS264**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1163,34 +1163,34 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C404, C203</t>
+          <t>C401</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**CS264**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1210,29 +1210,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102, C201</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**CS261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1252,34 +1252,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L406, C204</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1304,29 +1304,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303, L306</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS262**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C403, L408</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>⚠️ 6 issues</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1471,27 +1471,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS264**</t>
+          <t>**CS261**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1511,34 +1511,34 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C205, C204</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1558,39 +1558,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**CS262**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1600,34 +1600,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408, C201</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1652,29 +1652,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004, L407</t>
+          <t>C201</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1694,39 +1694,39 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C404, L408</t>
+          <t>C102, L406</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**CS264**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C305, C204</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>⚠️ 6 issues</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1855,7 +1855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,17 +1913,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1932,41 +1932,41 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CS263, ELECTIVE_B3</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1999,7 +1999,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>CS263, CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2061,31 +2061,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MA262, CS264</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA261, CS262, CS264</t>
+          <t>MA261, CS264, CS262</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2147,31 +2147,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA262, CS264 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2190,31 +2190,31 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>ELECTIVE_B3, CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2233,31 +2233,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS261, MA261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2276,31 +2276,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS262, CS264 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2343,7 +2343,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2386,7 +2386,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2429,17 +2429,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2460,12 +2460,98 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>CS262 (Lab)</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.4</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -2578,22 +2664,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2635,22 +2721,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2692,22 +2778,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2749,22 +2835,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2806,22 +2892,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2863,22 +2949,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2920,22 +3006,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3018,7 +3104,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3102,12 +3188,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13/35</t>
+          <t>15/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 37.1%</t>
+          <t>Utilization: 42.9%</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3232,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -14,6 +14,11 @@
     <sheet name="Room_Allocation" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="LTPSC_Compliance" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Executive_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Allocation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Course_Summary" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Basket_Courses" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Allocation" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,12 +479,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS261 [C002]</t>
+          <t>CS262 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,12 +494,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS262 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263 [C403]</t>
         </is>
       </c>
     </row>
@@ -506,27 +511,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261 [C201]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C303]</t>
+          <t>CS263 [C403]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS264 [C201]</t>
+          <t>MA261 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C402]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264 [C201]</t>
+          <t>CS264 [C405]</t>
         </is>
       </c>
     </row>
@@ -570,27 +575,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C204]</t>
+          <t>ELECTIVE_B3 [C303]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA261 [C401]</t>
+          <t>CS263 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C204]</t>
+          <t>ELECTIVE_B3 [C303]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263 [C303]</t>
+          <t>CS264 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS262 [C403]</t>
+          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -607,22 +612,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS263 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -634,27 +639,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261 [C401]</t>
+          <t>MA262 [C402]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L306]</t>
+          <t>CS261 [C201]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L408]</t>
+          <t>CS262 [C004]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS261 [C002]</t>
+          <t>MA261 [C202]</t>
         </is>
       </c>
     </row>
@@ -666,17 +671,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L306]</t>
+          <t>CS264 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -687,6 +692,3930 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CS262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>
@@ -744,17 +4673,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS264 [C003]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA261 [C201]</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C201]</t>
+          <t>CS262 [C003]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -764,7 +4693,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS263 [C102]</t>
+          <t>CS263 [C401]</t>
         </is>
       </c>
     </row>
@@ -776,27 +4705,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS261 [C003]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263 [C102]</t>
+          <t>CS263 [C401]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264 [C305]</t>
+          <t>CS264 [C003]</t>
         </is>
       </c>
     </row>
@@ -840,27 +4769,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C104]</t>
+          <t>ELECTIVE_B3 [C101]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS264 [C305]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C104]</t>
+          <t>ELECTIVE_B3 [C101]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262 [C202]</t>
+          <t>MA262 [C102]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261 [C003]</t>
+          <t>CS262 [C003]</t>
         </is>
       </c>
     </row>
@@ -877,12 +4806,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS264 (Tutorial) [C404]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -904,27 +4833,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS262 [C201]</t>
+          <t>CS263 (Lab) [L306]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261 [C305]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L406]</t>
+          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS262 [C201]</t>
+          <t>CS261 [C305]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS262 (Lab) [L408]</t>
+          <t>MA262 [C102]</t>
         </is>
       </c>
     </row>
@@ -936,27 +4865,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS263 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS262 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS263 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -1029,22 +4958,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS261**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1069,7 +4998,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C201</t>
         </is>
       </c>
     </row>
@@ -1086,7 +5015,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1116,24 +5045,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1163,41 +5092,41 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C402</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS264**</t>
+          <t>**CS262**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -1205,34 +5134,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102, C201</t>
+          <t>C004, L408</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1242,7 +5171,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1257,39 +5186,39 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C403, L408</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**CS264**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1304,29 +5233,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C303, L306</t>
+          <t>C405, C205</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1336,7 +5265,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1346,12 +5275,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C403, L408</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1471,27 +5400,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS261**</t>
+          <t>**CS264**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Operating systems</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suvadip Hazra</t>
+          <t>Prabhu Prasad B M</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-0-4-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1511,41 +5440,41 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C404, C003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>No</t>
@@ -1558,39 +5487,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS262**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Software design tool and tecnique</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sunil P V, Vivekraj</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1600,34 +5529,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>L408, C201</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS263**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Malay, Pramod Y</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1637,7 +5566,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1652,29 +5581,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C401, L306</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS263**</t>
+          <t>**CS261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Operating systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Malay, Pramod Y</t>
+          <t>Suvadip Hazra</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-0-0-4-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1684,7 +5613,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1699,41 +5628,41 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C102, L406</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS264**</t>
+          <t>**CS262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Software design tool and tecnique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prabhu Prasad B M</t>
+          <t>Sunil P V, Vivekraj</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>No</t>
@@ -1741,12 +5670,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C305, C204</t>
+          <t>L408, C003</t>
         </is>
       </c>
     </row>
@@ -1793,7 +5722,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -1855,7 +5784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,7 +5842,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1923,7 +5852,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1932,41 +5861,41 @@
         </is>
       </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262, CS264</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1975,31 +5904,31 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262, MA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2018,31 +5947,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS263, CS264 (Tutorial)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2073,7 +6002,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2104,24 +6033,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA261, CS264, CS262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -2151,7 +6080,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -2159,7 +6088,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2171,7 +6100,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2190,24 +6119,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3, CS264 (Tutorial)</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -2245,7 +6174,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2257,7 +6186,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2280,7 +6209,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2288,7 +6217,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2300,7 +6229,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2331,7 +6260,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2343,7 +6272,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2374,7 +6303,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2417,7 +6346,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2429,7 +6358,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2439,20 +6368,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2460,19 +6389,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2487,7 +6416,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -2495,7 +6424,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2503,7 +6432,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2515,17 +6444,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2534,11 +6463,11 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2546,12 +6475,55 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CS262 (Lab), CS263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -3104,7 +7076,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-12 16:58</t>
+          <t>2025-12-13 17:28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3188,12 +7160,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15/35</t>
+          <t>16/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 42.9%</t>
+          <t>Utilization: 45.7%</t>
         </is>
       </c>
     </row>
@@ -3238,6 +7210,1558 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>Score: 52.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Software design tool and tecnique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -485,27 +485,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C203]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C203]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C203]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS262 [C203]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS263 [C203]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264 [C203]</t>
+          <t>CS264 [C202]</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS263 [C203]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS264 [C203]</t>
+          <t>CS264 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS261 [C303]</t>
+          <t>CS261 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C203]</t>
+          <t>CS264 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS261 [C102]</t>
+          <t>CS261 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS262 [C101]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C203]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C203]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C203]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002, C203</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C002, C004, C204</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C002, C101</t>
+          <t>C001, C004, C101, C205</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C102</t>
+          <t>C102, C302, C304</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C003, C104, C303</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C003, C104</t>
+          <t>C202, C304, L402</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C002, C104, C202</t>
+          <t>C003, C305, L403</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002, C203</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C002, C004, C204</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C002, C004, C101, C102</t>
+          <t>C102, C302, C304</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C001, C002, C104, C202</t>
+          <t>C003, C305, L403</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -1560,7 +1560,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1608,11 +1608,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -1624,7 +1620,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1672,11 +1668,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -1688,7 +1680,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1738,7 +1730,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -1752,7 +1744,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1816,7 +1808,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1866,7 +1858,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -1880,7 +1872,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1930,7 +1922,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -1944,7 +1936,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1992,11 +1984,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -2008,7 +1996,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2056,11 +2044,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -2072,7 +2056,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2122,7 +2106,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -2136,7 +2120,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2200,7 +2184,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2250,7 +2234,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -2264,7 +2248,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2314,7 +2298,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -2328,7 +2312,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2378,7 +2362,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -2392,7 +2376,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2442,7 +2426,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -2456,7 +2440,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2634,7 +2618,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -2648,7 +2632,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2698,7 +2682,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -2712,7 +2696,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2762,7 +2746,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -2776,7 +2760,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2826,7 +2810,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -2840,7 +2824,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3018,7 +3002,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -3032,7 +3016,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3082,7 +3066,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -3096,7 +3080,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3146,7 +3130,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -3160,7 +3144,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3210,7 +3194,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -3224,7 +3208,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3264,17 +3248,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -3292,12 +3276,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3332,15 +3316,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -3356,12 +3344,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3396,17 +3384,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -3424,12 +3412,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3464,12 +3452,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3492,12 +3480,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3542,7 +3530,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -3560,12 +3548,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3628,12 +3616,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3678,7 +3666,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -3696,7 +3684,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3736,15 +3724,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -3760,12 +3752,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3800,17 +3792,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -3828,12 +3820,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3868,17 +3860,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -3896,12 +3888,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3936,12 +3928,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3964,12 +3956,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4014,7 +4006,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -4032,12 +4024,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4100,12 +4092,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4150,7 +4142,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -4168,7 +4160,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4198,12 +4190,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4213,7 +4205,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4229,18 +4221,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4268,17 +4268,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4336,15 +4336,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
@@ -4360,7 +4364,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4400,17 +4404,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -4428,12 +4432,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4468,17 +4472,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -4496,12 +4500,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4564,12 +4568,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4614,7 +4618,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -4632,12 +4636,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4657,17 +4661,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4682,7 +4686,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -4690,22 +4694,18 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4725,17 +4725,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4748,23 +4748,19 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4772,7 +4768,11 @@
           <t>MA261</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4808,31 +4808,31 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="b">
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4884,17 +4884,17 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4919,22 +4919,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -4948,12 +4948,12 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4983,22 +4983,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -5012,12 +5012,12 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5042,12 +5042,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -5076,17 +5076,17 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5106,22 +5106,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -5140,12 +5140,12 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5170,27 +5170,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -5204,12 +5204,12 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5268,12 +5268,12 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5303,22 +5303,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -5332,12 +5332,12 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5367,22 +5367,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -5396,12 +5396,12 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5460,12 +5460,12 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5490,12 +5490,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5554,12 +5554,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5588,12 +5588,12 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5652,17 +5652,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5716,17 +5716,17 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5780,12 +5780,12 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5844,17 +5844,17 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5908,17 +5908,17 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5938,12 +5938,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5972,12 +5972,12 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6036,17 +6036,17 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6100,17 +6100,17 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6164,12 +6164,12 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6194,12 +6194,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6228,17 +6228,17 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6258,12 +6258,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6292,17 +6292,17 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>CS263 (Lab)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6356,12 +6356,12 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6386,27 +6386,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -6414,18 +6414,22 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6450,27 +6454,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -6478,18 +6482,22 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6514,12 +6522,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6534,7 +6542,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -6542,18 +6550,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6616,12 +6628,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6684,12 +6696,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6724,17 +6736,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I82" t="b">
@@ -6752,12 +6764,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6792,17 +6804,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -6820,12 +6832,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6850,12 +6862,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6868,11 +6880,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="b">
         <v>0</v>
       </c>
@@ -6888,17 +6896,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6918,22 +6926,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6956,17 +6964,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6986,25 +6994,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I86" t="b">
         <v>0</v>
       </c>
@@ -7020,17 +7032,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7082,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -7088,12 +7100,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7128,12 +7140,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -7156,12 +7168,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7196,17 +7208,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -7224,12 +7236,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7264,15 +7276,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I90" t="b">
         <v>0</v>
       </c>
@@ -7288,12 +7304,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7318,27 +7334,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -7356,17 +7372,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7386,27 +7402,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -7424,17 +7440,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7454,12 +7470,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7472,11 +7488,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="b">
         <v>0</v>
       </c>
@@ -7492,17 +7504,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7522,12 +7534,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7537,7 +7549,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7553,18 +7565,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7592,12 +7612,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7620,12 +7640,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7665,12 +7685,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -7688,12 +7708,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7728,17 +7748,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -7756,12 +7776,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7769,394 +7789,6 @@
           <t>Lecture</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>3</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>3</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>3</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>3</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>3</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>3</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8236,16 +7868,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -8266,16 +7898,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -8368,16 +8000,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -8402,16 +8034,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -8470,16 +8102,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -8640,16 +8272,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -8674,16 +8306,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -8708,16 +8340,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>56.25</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -8878,16 +8510,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -8980,16 +8612,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -9014,16 +8646,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -9198,16 +8830,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -9232,16 +8864,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -9478,27 +9110,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C204]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C204]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C204]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C204]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
     </row>
@@ -9510,27 +9142,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>MA261 [C002]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA261 [C002]</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS262 [C204]</t>
+          <t>CS262 [C203]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS263 [C204]</t>
+          <t>CS263 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS264 [C204]</t>
+          <t>CS264 [C203]</t>
         </is>
       </c>
     </row>
@@ -9542,22 +9174,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>MA262 [C001]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>MA262 [C002]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MA262 [C002]</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS263 [C204]</t>
+          <t>CS263 [C203]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS264 [C204]</t>
+          <t>CS264 [C203]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -9611,7 +9243,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS261 [C304]</t>
+          <t>CS261 [C203]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9621,7 +9253,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L402]</t>
+          <t>CS263 (Lab) [L403]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -9638,7 +9270,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial) [C102]</t>
+          <t>CS264 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9653,7 +9285,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L402]</t>
+          <t>CS263 (Lab) [L403]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -9670,7 +9302,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS261 [C104]</t>
+          <t>CS261 [C203]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9734,27 +9366,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C204]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C204]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C204]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C204]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -9867,7 +9499,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9546,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -10008,7 +9640,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10055,7 +9687,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C303, C102</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10102,7 +9734,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C101, C203, L404</t>
+          <t>C202, L404</t>
         </is>
       </c>
     </row>
@@ -10149,7 +9781,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L403, C203</t>
+          <t>L402, C202</t>
         </is>
       </c>
     </row>
@@ -10309,7 +9941,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -10356,7 +9988,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -10450,7 +10082,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C204, C102</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10497,7 +10129,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C304, C104</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10544,7 +10176,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L403, C204, C203</t>
+          <t>L403, C203</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10223,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C204, L402</t>
+          <t>L403, C203</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10711,7 +10343,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -10724,13 +10356,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -10742,29 +10369,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA262, MA261</t>
+          <t>MA261, MA262</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -10773,31 +10400,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>MA261, MA262</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -10816,31 +10443,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS261, CS264 (Tutorial)</t>
+          <t>CS264 (Tutorial), CS261, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -10855,11 +10482,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -10867,23 +10494,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264 (Tutorial), CS261, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -10893,7 +10520,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -10902,31 +10529,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS264, CS264 (Tutorial), MINOR: Cybersecurity...</t>
+          <t>CS263 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -10936,7 +10563,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -10945,7 +10572,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -10953,23 +10580,23 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS264, MINOR: Cybersecurity, MINOR: Design...</t>
+          <t>CS262 (Lab), CS263 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -10979,7 +10606,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -10988,7 +10615,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -11000,182 +10627,10 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS262 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CS263 (Lab)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CS263 (Lab), CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CS262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -11730,7 +11185,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:14</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11814,12 +11269,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 30.6%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L106]</t>
+          <t>CS263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2636,16 +2636,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2704,16 +2704,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2908,16 +2908,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4089,7 +4089,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -5025,7 +5025,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5097,7 +5097,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6033,17 +6033,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6266,12 +6266,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6418,12 +6418,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6489,17 +6489,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6589,7 +6589,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6633,19 +6633,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="b">
         <v>0</v>
       </c>
@@ -6657,7 +6653,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6710,10 +6706,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6989,19 +6989,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -7013,7 +7009,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7061,19 +7057,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -7085,7 +7077,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7421,19 +7413,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7445,7 +7433,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7493,19 +7481,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7517,7 +7501,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7853,19 +7837,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -7877,7 +7857,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7925,19 +7905,15 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -7949,7 +7925,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8069,19 +8045,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8093,7 +8065,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8613,7 +8585,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8671,7 +8643,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8689,7 +8661,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8737,15 +8709,19 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -8761,7 +8737,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8817,11 +8793,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -8837,7 +8809,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8885,12 +8857,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -8913,7 +8885,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -8989,7 +8961,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9065,7 +9037,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9217,7 +9189,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9351,7 +9323,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C203</t>
+          <t>C004, C204</t>
         </is>
       </c>
     </row>
@@ -9368,7 +9340,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C002, C204, L404</t>
+          <t>C001, C205</t>
         </is>
       </c>
     </row>
@@ -9385,7 +9357,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C101, L402, L406</t>
+          <t>C002, C203</t>
         </is>
       </c>
     </row>
@@ -9402,7 +9374,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C102, C205, L407</t>
+          <t>C101, C302</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9391,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C104, C302, L408</t>
+          <t>C102, C303</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9408,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C202, L403, L405</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9425,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C202, C203, C303</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9533,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C203</t>
+          <t>C004, C204</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9550,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C204, L404</t>
+          <t>C001, C205</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9580,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C102, C205, L407</t>
+          <t>C101, C302</t>
         </is>
       </c>
     </row>
@@ -9651,7 +9623,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C004, C202, C203, C303</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_CSE_timetable_baskets.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264 [C102]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
     </row>
@@ -528,17 +528,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS263 [C302]</t>
+          <t>CS263 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS264 [C102]</t>
+          <t>CS264 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS263 (Lab) [L107]</t>
+          <t>CS263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS262 [C004]</t>
+          <t>CS262 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,22 +690,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS262 [C101]</t>
+          <t>CS262 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263 [C202]</t>
+          <t>CS263 [C203]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS263 [C202]</t>
+          <t>CS263 [C203]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS262 [C101]</t>
+          <t>CS262 [C203]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2704,16 +2704,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>45</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>60</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="E14" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.25</v>
+        <v>33.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3044,16 +3044,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11.25</v>
+        <v>26.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3180,16 +3180,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3248,16 +3248,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11.25</v>
+        <v>26.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3316,16 +3316,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3921,17 +3921,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3945,7 +3945,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4065,17 +4065,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4089,7 +4089,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4209,17 +4209,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4233,7 +4233,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4281,17 +4281,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4305,7 +4305,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4353,17 +4353,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4377,7 +4377,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4425,17 +4425,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4449,7 +4449,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4521,7 +4521,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4713,17 +4713,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4737,7 +4737,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4785,17 +4785,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4809,7 +4809,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4881,7 +4881,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4953,7 +4953,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5025,7 +5025,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5097,7 +5097,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5145,17 +5145,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5169,7 +5169,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5217,17 +5217,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5241,7 +5241,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5313,7 +5313,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5361,17 +5361,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5385,7 +5385,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6589,7 +6589,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6633,15 +6633,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
@@ -6653,7 +6657,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6773,17 +6777,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6797,7 +6801,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6927,7 +6931,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6941,7 +6945,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6989,15 +6993,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -7009,7 +7017,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7057,15 +7065,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -7077,7 +7089,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7135,7 +7147,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7149,7 +7161,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7207,7 +7219,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7221,7 +7233,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7413,15 +7425,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7433,7 +7449,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7481,15 +7497,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7501,7 +7521,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7559,7 +7579,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -7573,7 +7593,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7837,15 +7857,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -7857,7 +7881,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7905,15 +7929,19 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -7925,7 +7953,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8045,15 +8073,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8065,7 +8097,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8181,17 +8213,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -8209,7 +8241,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8257,15 +8289,19 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
@@ -8281,7 +8317,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8329,12 +8365,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -8357,7 +8393,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8433,7 +8469,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8491,7 +8527,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -8509,7 +8545,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8567,7 +8603,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8585,7 +8621,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8661,7 +8697,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8709,17 +8745,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -8737,7 +8773,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8785,15 +8821,19 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
@@ -8809,7 +8849,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8857,12 +8897,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -8885,7 +8925,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -8961,7 +9001,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9019,7 +9059,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -9037,7 +9077,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9095,7 +9135,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9113,7 +9153,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9189,7 +9229,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9323,7 +9363,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C204</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9340,7 +9380,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C205</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9397,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -9374,7 +9414,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9431,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9448,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -9425,7 +9465,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -9533,7 +9573,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, C204</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9550,7 +9590,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C205</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9620,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9663,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
